--- a/Userside bot/doctors.xlsx
+++ b/Userside bot/doctors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sadra\Python-S\Non-graphic projects\medical-visit-telegram-bot\Userside bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B477C8C-40D3-4656-92E3-5C11B35E0996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA57C7-590C-4CCA-B57C-70B974E17D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
